--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>project_year</t>
   </si>
@@ -323,10 +323,34 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>Ukraine</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Serbia</t>
   </si>
 </sst>
 </file>
@@ -2940,10 +2964,10 @@
         <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C208" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="209">
@@ -2951,10 +2975,10 @@
         <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C209" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="210">
@@ -2962,10 +2986,10 @@
         <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C210" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="211">
@@ -2973,10 +2997,10 @@
         <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C211" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="212">
@@ -2984,10 +3008,10 @@
         <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C212" t="n">
-        <v>33</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="213">
@@ -2995,10 +3019,10 @@
         <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C213" t="n">
-        <v> 4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214">
@@ -3006,10 +3030,10 @@
         <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C214" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="215">
@@ -3017,10 +3041,10 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C215" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="216">
@@ -3028,10 +3052,10 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C216" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="217">
@@ -3039,7 +3063,7 @@
         <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C217" t="n">
         <v> 1</v>
@@ -3050,10 +3074,10 @@
         <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C218" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="219">
@@ -3061,10 +3085,10 @@
         <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C219" t="n">
-        <v> 8</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="220">
@@ -3072,10 +3096,10 @@
         <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C220" t="n">
-        <v> 8</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="221">
@@ -3083,10 +3107,10 @@
         <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C221" t="n">
-        <v>11</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="222">
@@ -3094,10 +3118,10 @@
         <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C222" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -3105,10 +3129,10 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C223" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="224">
@@ -3116,10 +3140,10 @@
         <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C224" t="n">
-        <v>40</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="225">
@@ -3127,10 +3151,10 @@
         <v>94</v>
       </c>
       <c r="B225" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225" t="n">
         <v>40</v>
-      </c>
-      <c r="C225" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="226">
@@ -3138,10 +3162,10 @@
         <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C226" t="n">
-        <v> 4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227">
@@ -3149,10 +3173,10 @@
         <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C227" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="228">
@@ -3160,10 +3184,10 @@
         <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C228" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="229">
@@ -3171,10 +3195,10 @@
         <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C229" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="230">
@@ -3182,10 +3206,10 @@
         <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C230" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="231">
@@ -3193,10 +3217,10 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C231" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="232">
@@ -3204,7 +3228,7 @@
         <v>94</v>
       </c>
       <c r="B232" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C232" t="n">
         <v> 1</v>
@@ -3215,10 +3239,10 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C233" t="n">
-        <v>20</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="234">
@@ -3226,10 +3250,10 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C234" t="n">
-        <v> 2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235">
@@ -3237,10 +3261,10 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C235" t="n">
-        <v>12</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="236">
@@ -3248,10 +3272,10 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C236" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
@@ -3259,10 +3283,10 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C237" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="238">
@@ -3270,7 +3294,7 @@
         <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C238" t="n">
         <v> 2</v>
@@ -3281,10 +3305,10 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C239" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="240">
@@ -3292,10 +3316,10 @@
         <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C240" t="n">
-        <v> 7</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="241">
@@ -3303,10 +3327,10 @@
         <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C241" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="242">
@@ -3314,10 +3338,10 @@
         <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C242" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="243">
@@ -3325,10 +3349,10 @@
         <v>94</v>
       </c>
       <c r="B243" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C243" t="n">
-        <v>31</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="244">
@@ -3347,10 +3371,10 @@
         <v>94</v>
       </c>
       <c r="B245" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C245" t="n">
-        <v> 1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246">
@@ -3358,10 +3382,10 @@
         <v>94</v>
       </c>
       <c r="B246" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C246" t="n">
-        <v>20</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="247">
@@ -3369,10 +3393,10 @@
         <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C247" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="248">
@@ -3380,10 +3404,10 @@
         <v>94</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C248" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -3391,10 +3415,10 @@
         <v>94</v>
       </c>
       <c r="B249" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C249" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="250">
@@ -3402,10 +3426,637 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
+        <v>72</v>
+      </c>
+      <c r="C250" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>94</v>
+      </c>
+      <c r="B251" t="s">
+        <v>57</v>
+      </c>
+      <c r="C251" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>94</v>
+      </c>
+      <c r="B252" t="s">
         <v>58</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C252" t="n">
         <v> 5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>106</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>106</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="n">
+        <v> 6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>106</v>
+      </c>
+      <c r="B255" t="s">
+        <v>107</v>
+      </c>
+      <c r="C255" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>106</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="n">
+        <v> 7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>106</v>
+      </c>
+      <c r="B257" t="s">
+        <v>98</v>
+      </c>
+      <c r="C257" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>106</v>
+      </c>
+      <c r="B258" t="s">
+        <v>60</v>
+      </c>
+      <c r="C258" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>106</v>
+      </c>
+      <c r="B259" t="s">
+        <v>108</v>
+      </c>
+      <c r="C259" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>106</v>
+      </c>
+      <c r="B260" t="s">
+        <v>75</v>
+      </c>
+      <c r="C260" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>106</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>106</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>106</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>106</v>
+      </c>
+      <c r="B265" t="s">
+        <v>109</v>
+      </c>
+      <c r="C265" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>106</v>
+      </c>
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>106</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>106</v>
+      </c>
+      <c r="B268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>106</v>
+      </c>
+      <c r="B269" t="s">
+        <v>80</v>
+      </c>
+      <c r="C269" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>106</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>106</v>
+      </c>
+      <c r="B271" t="s">
+        <v>100</v>
+      </c>
+      <c r="C271" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>106</v>
+      </c>
+      <c r="B272" t="s">
+        <v>20</v>
+      </c>
+      <c r="C272" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>106</v>
+      </c>
+      <c r="B273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C273" t="n">
+        <v> 9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" t="s">
+        <v>83</v>
+      </c>
+      <c r="C274" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>106</v>
+      </c>
+      <c r="B275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" t="s">
+        <v>28</v>
+      </c>
+      <c r="C276" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>106</v>
+      </c>
+      <c r="B277" t="s">
+        <v>29</v>
+      </c>
+      <c r="C277" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>106</v>
+      </c>
+      <c r="B278" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>106</v>
+      </c>
+      <c r="B279" t="s">
+        <v>32</v>
+      </c>
+      <c r="C279" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>106</v>
+      </c>
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>106</v>
+      </c>
+      <c r="B281" t="s">
+        <v>110</v>
+      </c>
+      <c r="C281" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>106</v>
+      </c>
+      <c r="B282" t="s">
+        <v>37</v>
+      </c>
+      <c r="C282" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>106</v>
+      </c>
+      <c r="B283" t="s">
+        <v>64</v>
+      </c>
+      <c r="C283" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>106</v>
+      </c>
+      <c r="B284" t="s">
+        <v>111</v>
+      </c>
+      <c r="C284" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>106</v>
+      </c>
+      <c r="B285" t="s">
+        <v>65</v>
+      </c>
+      <c r="C285" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>106</v>
+      </c>
+      <c r="B286" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>106</v>
+      </c>
+      <c r="B287" t="s">
+        <v>85</v>
+      </c>
+      <c r="C287" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>106</v>
+      </c>
+      <c r="B288" t="s">
+        <v>39</v>
+      </c>
+      <c r="C288" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>106</v>
+      </c>
+      <c r="B289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>106</v>
+      </c>
+      <c r="B290" t="s">
+        <v>43</v>
+      </c>
+      <c r="C290" t="n">
+        <v> 7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>106</v>
+      </c>
+      <c r="B291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C291" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>106</v>
+      </c>
+      <c r="B292" t="s">
+        <v>112</v>
+      </c>
+      <c r="C292" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>106</v>
+      </c>
+      <c r="B293" t="s">
+        <v>46</v>
+      </c>
+      <c r="C293" t="n">
+        <v> 4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>106</v>
+      </c>
+      <c r="B294" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" t="n">
+        <v> 3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>106</v>
+      </c>
+      <c r="B295" t="s">
+        <v>48</v>
+      </c>
+      <c r="C295" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296" t="s">
+        <v>49</v>
+      </c>
+      <c r="C296" t="n">
+        <v> 4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>106</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>106</v>
+      </c>
+      <c r="B298" t="s">
+        <v>92</v>
+      </c>
+      <c r="C298" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299" t="s">
+        <v>51</v>
+      </c>
+      <c r="C299" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>106</v>
+      </c>
+      <c r="B300" t="s">
+        <v>52</v>
+      </c>
+      <c r="C300" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>106</v>
+      </c>
+      <c r="B301" t="s">
+        <v>104</v>
+      </c>
+      <c r="C301" t="n">
+        <v> 1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>106</v>
+      </c>
+      <c r="B302" t="s">
+        <v>54</v>
+      </c>
+      <c r="C302" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>106</v>
+      </c>
+      <c r="B303" t="s">
+        <v>71</v>
+      </c>
+      <c r="C303" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>106</v>
+      </c>
+      <c r="B304" t="s">
+        <v>55</v>
+      </c>
+      <c r="C304" t="n">
+        <v> 8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>106</v>
+      </c>
+      <c r="B305" t="s">
+        <v>56</v>
+      </c>
+      <c r="C305" t="n">
+        <v> 5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>106</v>
+      </c>
+      <c r="B306" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" t="n">
+        <v> 2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>106</v>
+      </c>
+      <c r="B307" t="s">
+        <v>58</v>
+      </c>
+      <c r="C307" t="n">
+        <v> 9</v>
       </c>
     </row>
   </sheetData>

--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>project_year</t>
   </si>
@@ -140,81 +140,81 @@
     <t>Palestine, State of</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
@@ -236,19 +236,22 @@
     <t>2013</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Bolivia, Plurinational State of</t>
   </si>
   <si>
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Congo</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>Finland</t>
@@ -932,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1119,7 +1122,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v> 1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1130,7 +1133,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1141,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="43">
@@ -1152,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1163,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="45">
@@ -1174,7 +1177,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1185,7 +1188,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="47">
@@ -1196,7 +1199,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="48">
@@ -1207,7 +1210,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1218,7 +1221,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="50">
@@ -1229,7 +1232,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="51">
@@ -1240,7 +1243,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v> 3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1251,7 +1254,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="53">
@@ -1262,7 +1265,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="54">
@@ -1273,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1284,48 +1287,48 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
         <v> 1</v>
@@ -1333,10 +1336,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v> 1</v>
@@ -1344,21 +1347,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" t="n">
         <v> 2</v>
@@ -1366,208 +1369,208 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v> 2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v> 4</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v> 3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C72" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75" t="n">
-        <v> 3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v> 6</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C79" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C81" t="n">
         <v> 2</v>
@@ -1575,32 +1578,32 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C83" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C84" t="n">
         <v> 1</v>
@@ -1608,186 +1611,186 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
       </c>
       <c r="C85" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C86" t="n">
-        <v> 2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C89" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C91" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
       </c>
       <c r="C92" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
       <c r="C93" t="n">
-        <v> 7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C95" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
         <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C97" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C98" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
       </c>
       <c r="C99" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
       </c>
       <c r="C100" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C101" t="n">
         <v> 3</v>
@@ -1795,123 +1798,123 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C102" t="n">
-        <v> 3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C104" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C105" t="n">
-        <v> 1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C106" t="n">
-        <v>32</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C107" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
       </c>
       <c r="C108" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C109" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C110" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
       </c>
       <c r="C111" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C112" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="113">
@@ -1952,7 +1955,7 @@
         <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C116" t="n">
         <v> 1</v>
@@ -1963,7 +1966,7 @@
         <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C117" t="n">
         <v> 2</v>
@@ -1974,7 +1977,7 @@
         <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C118" t="n">
         <v> 1</v>
@@ -1996,10 +1999,10 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C120" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="121">
@@ -2007,10 +2010,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>22</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="122">
@@ -2018,10 +2021,10 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v> 1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
@@ -2029,7 +2032,7 @@
         <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
         <v> 1</v>
@@ -2040,7 +2043,7 @@
         <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C124" t="n">
         <v> 1</v>
@@ -2051,10 +2054,10 @@
         <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C125" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="126">
@@ -2062,10 +2065,10 @@
         <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C126" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="127">
@@ -2095,7 +2098,7 @@
         <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C129" t="n">
         <v> 1</v>
@@ -2106,7 +2109,7 @@
         <v>73</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C130" t="n">
         <v> 2</v>
@@ -2117,7 +2120,7 @@
         <v>73</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C131" t="n">
         <v> 1</v>
@@ -2131,7 +2134,7 @@
         <v>19</v>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -2139,7 +2142,7 @@
         <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C133" t="n">
         <v> 1</v>
@@ -2153,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
@@ -2194,7 +2197,7 @@
         <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C138" t="n">
         <v> 4</v>
@@ -2260,7 +2263,7 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C144" t="n">
         <v> 3</v>
@@ -2293,7 +2296,7 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C147" t="n">
         <v> 1</v>
@@ -2326,7 +2329,7 @@
         <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C150" t="n">
         <v> 9</v>
@@ -2337,7 +2340,7 @@
         <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C151" t="n">
         <v> 3</v>
@@ -2359,7 +2362,7 @@
         <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C153" t="n">
         <v> 1</v>
@@ -2370,7 +2373,7 @@
         <v>73</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C154" t="n">
         <v> 2</v>
@@ -2381,7 +2384,7 @@
         <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C155" t="n">
         <v> 1</v>
@@ -2395,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="C156" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
@@ -2403,7 +2406,7 @@
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C157" t="n">
         <v> 1</v>
@@ -2436,7 +2439,7 @@
         <v>73</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C160" t="n">
         <v>16</v>
@@ -2447,7 +2450,7 @@
         <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C161" t="n">
         <v> 1</v>
@@ -2458,7 +2461,7 @@
         <v>73</v>
       </c>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" t="n">
         <v> 8</v>
@@ -2480,7 +2483,7 @@
         <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C164" t="n">
         <v> 1</v>
@@ -2491,7 +2494,7 @@
         <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C165" t="n">
         <v> 6</v>
@@ -2502,7 +2505,7 @@
         <v>73</v>
       </c>
       <c r="B166" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C166" t="n">
         <v> 1</v>
@@ -2513,7 +2516,7 @@
         <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C167" t="n">
         <v> 4</v>
@@ -2524,7 +2527,7 @@
         <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C168" t="n">
         <v>22</v>
@@ -2535,7 +2538,7 @@
         <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C169" t="n">
         <v> 1</v>
@@ -2546,7 +2549,7 @@
         <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" t="n">
         <v> 4</v>
@@ -2568,7 +2571,7 @@
         <v>73</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C172" t="n">
         <v> 1</v>
@@ -2579,7 +2582,7 @@
         <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C173" t="n">
         <v> 1</v>
@@ -2590,7 +2593,7 @@
         <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C174" t="n">
         <v>25</v>
@@ -2601,7 +2604,7 @@
         <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C175" t="n">
         <v> 2</v>
@@ -2612,7 +2615,7 @@
         <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C176" t="n">
         <v> 1</v>
@@ -2623,7 +2626,7 @@
         <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C177" t="n">
         <v> 2</v>
@@ -2645,10 +2648,10 @@
         <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C179" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="180">
@@ -2659,7 +2662,7 @@
         <v>71</v>
       </c>
       <c r="C180" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="181">
@@ -2667,7 +2670,7 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C181" t="n">
         <v> 6</v>
@@ -2678,7 +2681,7 @@
         <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C182" t="n">
         <v> 7</v>
@@ -2700,7 +2703,7 @@
         <v>73</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" t="n">
         <v> 6</v>
@@ -2711,15 +2714,15 @@
         <v>73</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C185" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
@@ -2730,10 +2733,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B187" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C187" t="n">
         <v> 1</v>
@@ -2741,10 +2744,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B188" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C188" t="n">
         <v> 4</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -2763,10 +2766,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C190" t="n">
         <v> 1</v>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -2785,10 +2788,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C192" t="n">
         <v> 2</v>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -2807,65 +2810,65 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="n">
         <v>12</v>
-      </c>
-      <c r="C195" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" t="n">
-        <v> 3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C197" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B199" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C199" t="n">
         <v> 1</v>
@@ -2873,10 +2876,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B200" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C200" t="n">
         <v> 1</v>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
         <v>17</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B202" t="s">
         <v>18</v>
@@ -2906,10 +2909,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B203" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C203" t="n">
         <v> 2</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B204" t="s">
         <v>19</v>
@@ -2928,10 +2931,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B205" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C205" t="n">
         <v> 1</v>
@@ -2939,18 +2942,18 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B206" t="s">
         <v>20</v>
       </c>
       <c r="C206" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
@@ -2961,10 +2964,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C208" t="n">
         <v> 2</v>
@@ -2972,7 +2975,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B209" t="s">
         <v>23</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B210" t="s">
         <v>24</v>
@@ -2994,10 +2997,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C211" t="n">
         <v> 3</v>
@@ -3005,10 +3008,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C212" t="n">
         <v> 1</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B213" t="s">
         <v>25</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B214" t="s">
         <v>26</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B216" t="s">
         <v>29</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B217" t="s">
         <v>31</v>
@@ -3071,10 +3074,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B218" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C218" t="n">
         <v> 1</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B220" t="s">
         <v>33</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B221" t="s">
         <v>37</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
@@ -3126,10 +3129,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B223" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C223" t="n">
         <v> 2</v>
@@ -3137,10 +3140,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B224" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C224" t="n">
         <v> 4</v>
@@ -3148,18 +3151,18 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B225" t="s">
         <v>39</v>
       </c>
       <c r="C225" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B226" t="s">
         <v>40</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B227" t="s">
         <v>41</v>
@@ -3181,10 +3184,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C228" t="n">
         <v> 1</v>
@@ -3192,10 +3195,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C229" t="n">
         <v> 9</v>
@@ -3203,10 +3206,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B230" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C230" t="n">
         <v> 1</v>
@@ -3214,10 +3217,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C231" t="n">
         <v> 8</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B232" t="s">
         <v>67</v>
@@ -3236,10 +3239,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C233" t="n">
         <v> 1</v>
@@ -3247,10 +3250,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C234" t="n">
         <v>20</v>
@@ -3258,10 +3261,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C235" t="n">
         <v> 2</v>
@@ -3269,10 +3272,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C236" t="n">
         <v>12</v>
@@ -3280,10 +3283,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C237" t="n">
         <v> 1</v>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B238" t="s">
         <v>69</v>
@@ -3302,10 +3305,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B239" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C239" t="n">
         <v> 1</v>
@@ -3313,10 +3316,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B240" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C240" t="n">
         <v> 2</v>
@@ -3324,10 +3327,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C241" t="n">
         <v> 8</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C242" t="n">
         <v> 7</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B243" t="s">
         <v>70</v>
@@ -3357,10 +3360,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B244" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C244" t="n">
         <v> 1</v>
@@ -3368,10 +3371,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C245" t="n">
         <v>31</v>
@@ -3379,10 +3382,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B246" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C246" t="n">
         <v> 1</v>
@@ -3390,7 +3393,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B247" t="s">
         <v>71</v>
@@ -3401,10 +3404,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B248" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C248" t="n">
         <v>20</v>
@@ -3412,10 +3415,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C249" t="n">
         <v> 4</v>
@@ -3423,7 +3426,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B250" t="s">
         <v>72</v>
@@ -3434,10 +3437,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C251" t="n">
         <v> 1</v>
@@ -3445,10 +3448,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C252" t="n">
         <v> 5</v>
@@ -3456,7 +3459,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
@@ -3467,21 +3470,21 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v> 6</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B255" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C255" t="n">
         <v> 1</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -3500,10 +3503,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B257" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C257" t="n">
         <v> 3</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C258" t="n">
         <v> 1</v>
@@ -3522,10 +3525,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B259" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3533,10 +3536,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C260" t="n">
         <v> 1</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B262" t="s">
         <v>12</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B263" t="s">
         <v>13</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
@@ -3588,10 +3591,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B265" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C265" t="n">
         <v> 1</v>
@@ -3599,7 +3602,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B266" t="s">
         <v>16</v>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B267" t="s">
         <v>17</v>
@@ -3621,7 +3624,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B268" t="s">
         <v>18</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B269" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C269" t="n">
         <v> 3</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B270" t="s">
         <v>19</v>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B271" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C271" t="n">
         <v> 1</v>
@@ -3665,7 +3668,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B272" t="s">
         <v>20</v>
@@ -3676,7 +3679,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B273" t="s">
         <v>21</v>
@@ -3687,10 +3690,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B274" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C274" t="n">
         <v> 1</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B275" t="s">
         <v>25</v>
@@ -3709,7 +3712,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B276" t="s">
         <v>28</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -3731,10 +3734,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B278" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C278" t="n">
         <v> 3</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B279" t="s">
         <v>32</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B280" t="s">
         <v>33</v>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B281" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C281" t="n">
         <v> 2</v>
@@ -3775,7 +3778,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B282" t="s">
         <v>37</v>
@@ -3786,10 +3789,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B283" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C283" t="n">
         <v> 1</v>
@@ -3797,10 +3800,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B284" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C284" t="n">
         <v> 1</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B285" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C285" t="n">
         <v> 1</v>
@@ -3819,7 +3822,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B286" t="s">
         <v>38</v>
@@ -3830,10 +3833,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B287" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C287" t="n">
         <v> 2</v>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B288" t="s">
         <v>39</v>
@@ -3852,7 +3855,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B289" t="s">
         <v>40</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C290" t="n">
         <v> 7</v>
@@ -3874,10 +3877,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C291" t="n">
         <v> 5</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B292" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C292" t="n">
         <v> 1</v>
@@ -3896,10 +3899,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C293" t="n">
         <v> 4</v>
@@ -3907,10 +3910,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B294" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C294" t="n">
         <v> 3</v>
@@ -3918,21 +3921,21 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C295" t="n">
-        <v> 8</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B296" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C296" t="n">
         <v> 4</v>
@@ -3940,10 +3943,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C297" t="n">
         <v> 1</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B298" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C298" t="n">
         <v> 1</v>
@@ -3962,10 +3965,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C299" t="n">
         <v> 8</v>
@@ -3973,10 +3976,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C300" t="n">
         <v> 1</v>
@@ -3984,10 +3987,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B301" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C301" t="n">
         <v> 1</v>
@@ -3995,10 +3998,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C302" t="n">
         <v>30</v>
@@ -4006,7 +4009,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B303" t="s">
         <v>71</v>
@@ -4017,10 +4020,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C304" t="n">
         <v> 8</v>
@@ -4028,10 +4031,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B305" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C305" t="n">
         <v> 5</v>
@@ -4039,10 +4042,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B306" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C306" t="n">
         <v> 2</v>
@@ -4050,10 +4053,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B307" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C307" t="n">
         <v> 9</v>

--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -869,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -891,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1375,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -1573,7 +1573,7 @@
         <v>62</v>
       </c>
       <c r="C81" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="82">
@@ -1639,7 +1639,7 @@
         <v>39</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -1650,7 +1650,7 @@
         <v>65</v>
       </c>
       <c r="C88" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="89">
@@ -1903,7 +1903,7 @@
         <v>57</v>
       </c>
       <c r="C111" t="n">
-        <v> 7</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="112">
@@ -2156,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
@@ -2409,7 +2409,7 @@
         <v>65</v>
       </c>
       <c r="C157" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="158">
@@ -4026,7 +4026,7 @@
         <v>54</v>
       </c>
       <c r="C304" t="n">
-        <v> 8</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="305">

--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -245,13 +245,13 @@
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Congo</t>
   </si>
   <si>
     <t>Finland</t>
@@ -1999,10 +1999,10 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="121">
@@ -2010,10 +2010,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v> 5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -2021,10 +2021,10 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="123">
@@ -2032,7 +2032,7 @@
         <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C123" t="n">
         <v> 1</v>
@@ -2054,10 +2054,10 @@
         <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C125" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="126">
@@ -2065,10 +2065,10 @@
         <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C126" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="127">
@@ -2813,10 +2813,10 @@
         <v>95</v>
       </c>
       <c r="B194" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C194" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -2824,10 +2824,10 @@
         <v>95</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C195" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -2835,10 +2835,10 @@
         <v>95</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C196" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="197">
@@ -2846,10 +2846,10 @@
         <v>95</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C197" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="198">
@@ -2857,10 +2857,10 @@
         <v>95</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C198" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="199">
@@ -2868,7 +2868,7 @@
         <v>95</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C199" t="n">
         <v> 1</v>
@@ -2879,7 +2879,7 @@
         <v>95</v>
       </c>
       <c r="B200" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C200" t="n">
         <v> 1</v>

--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>project_year</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>2013</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Bolivia, Plurinational State of</t>
@@ -1911,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="113">
@@ -1922,10 +1919,10 @@
         <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="114">
@@ -1933,10 +1930,10 @@
         <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v> 2</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="115">
@@ -1944,10 +1941,10 @@
         <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C115" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="116">
@@ -1955,10 +1952,10 @@
         <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C116" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="117">
@@ -1966,10 +1963,10 @@
         <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C117" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="118">
@@ -1977,10 +1974,10 @@
         <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="119">
@@ -1988,10 +1985,10 @@
         <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v> 3</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="120">
@@ -1999,10 +1996,10 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v> 5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -2010,10 +2007,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="122">
@@ -2021,7 +2018,7 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C122" t="n">
         <v> 1</v>
@@ -2043,10 +2040,10 @@
         <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="125">
@@ -2054,10 +2051,10 @@
         <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C125" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="126">
@@ -2065,10 +2062,10 @@
         <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="127">
@@ -2076,10 +2073,10 @@
         <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C127" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="128">
@@ -2087,10 +2084,10 @@
         <v>73</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C128" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="129">
@@ -2101,7 +2098,7 @@
         <v>80</v>
       </c>
       <c r="C129" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="130">
@@ -2112,7 +2109,7 @@
         <v>81</v>
       </c>
       <c r="C130" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="131">
@@ -2120,10 +2117,10 @@
         <v>73</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C131" t="n">
-        <v> 1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -2131,10 +2128,10 @@
         <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C132" t="n">
-        <v>14</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="133">
@@ -2142,10 +2139,10 @@
         <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v> 1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
@@ -2153,10 +2150,10 @@
         <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -2164,10 +2161,10 @@
         <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="136">
@@ -2175,10 +2172,10 @@
         <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="137">
@@ -2186,10 +2183,10 @@
         <v>73</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C137" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="138">
@@ -2197,10 +2194,10 @@
         <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v> 4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139">
@@ -2208,10 +2205,10 @@
         <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C139" t="n">
-        <v>57</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="140">
@@ -2219,10 +2216,10 @@
         <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C140" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="141">
@@ -2230,10 +2227,10 @@
         <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C141" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="142">
@@ -2241,7 +2238,7 @@
         <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C142" t="n">
         <v> 1</v>
@@ -2252,10 +2249,10 @@
         <v>73</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C143" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="144">
@@ -2263,10 +2260,10 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C144" t="n">
-        <v> 3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -2274,10 +2271,10 @@
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C145" t="n">
-        <v>13</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="146">
@@ -2285,7 +2282,7 @@
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C146" t="n">
         <v> 1</v>
@@ -2296,7 +2293,7 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C147" t="n">
         <v> 1</v>
@@ -2307,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C148" t="n">
         <v> 1</v>
@@ -2318,10 +2315,10 @@
         <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C149" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="150">
@@ -2329,10 +2326,10 @@
         <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C150" t="n">
-        <v> 9</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="151">
@@ -2340,10 +2337,10 @@
         <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C151" t="n">
-        <v> 3</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="152">
@@ -2351,10 +2348,10 @@
         <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C152" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="153">
@@ -2365,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="C153" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="154">
@@ -2376,7 +2373,7 @@
         <v>87</v>
       </c>
       <c r="C154" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="155">
@@ -2384,10 +2381,10 @@
         <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C155" t="n">
-        <v> 1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
@@ -2395,10 +2392,10 @@
         <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C156" t="n">
-        <v>35</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="157">
@@ -2406,10 +2403,10 @@
         <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C157" t="n">
-        <v> 2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -2417,10 +2414,10 @@
         <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C158" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -2428,10 +2425,10 @@
         <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
@@ -2439,10 +2436,10 @@
         <v>73</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C160" t="n">
-        <v>16</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="161">
@@ -2450,10 +2447,10 @@
         <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C161" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="162">
@@ -2461,10 +2458,10 @@
         <v>73</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C162" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="163">
@@ -2472,7 +2469,7 @@
         <v>73</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C163" t="n">
         <v> 1</v>
@@ -2483,10 +2480,10 @@
         <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C164" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="165">
@@ -2494,10 +2491,10 @@
         <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C165" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="166">
@@ -2505,10 +2502,10 @@
         <v>73</v>
       </c>
       <c r="B166" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C166" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="167">
@@ -2516,10 +2513,10 @@
         <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C167" t="n">
-        <v> 4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
@@ -2527,10 +2524,10 @@
         <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C168" t="n">
-        <v>22</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="169">
@@ -2538,10 +2535,10 @@
         <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C169" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="170">
@@ -2549,10 +2546,10 @@
         <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C170" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="171">
@@ -2560,10 +2557,10 @@
         <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C171" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="172">
@@ -2582,10 +2579,10 @@
         <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C173" t="n">
-        <v> 1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174">
@@ -2593,10 +2590,10 @@
         <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C174" t="n">
-        <v>25</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="175">
@@ -2604,10 +2601,10 @@
         <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C175" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="176">
@@ -2615,10 +2612,10 @@
         <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C176" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="177">
@@ -2626,7 +2623,7 @@
         <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C177" t="n">
         <v> 2</v>
@@ -2637,10 +2634,10 @@
         <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C178" t="n">
-        <v> 2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179">
@@ -2648,10 +2645,10 @@
         <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C179" t="n">
-        <v>74</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="180">
@@ -2659,10 +2656,10 @@
         <v>73</v>
       </c>
       <c r="B180" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C180" t="n">
-        <v> 1</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="181">
@@ -2670,10 +2667,10 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C181" t="n">
-        <v> 6</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="182">
@@ -2681,10 +2678,10 @@
         <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C182" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="183">
@@ -2692,10 +2689,10 @@
         <v>73</v>
       </c>
       <c r="B183" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C183" t="n">
-        <v> 3</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="184">
@@ -2703,161 +2700,161 @@
         <v>73</v>
       </c>
       <c r="B184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C184" t="n">
-        <v> 6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>19</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>94</v>
+      </c>
+      <c r="B186" t="s">
         <v>95</v>
       </c>
-      <c r="B186" t="s">
-        <v>4</v>
-      </c>
       <c r="C186" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B187" t="s">
         <v>96</v>
       </c>
       <c r="C187" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v> 4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C189" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v> 1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C193" t="n">
-        <v> 1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C195" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C196" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C197" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C198" t="n">
         <v> 1</v>
@@ -2865,10 +2862,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C199" t="n">
         <v> 1</v>
@@ -2876,197 +2873,197 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C200" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C201" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C202" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C203" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C205" t="n">
-        <v> 1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C206" t="n">
-        <v>43</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C207" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C208" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C209" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C210" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C211" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C212" t="n">
-        <v> 1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C213" t="n">
-        <v>33</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C214" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C215" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C216" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C217" t="n">
         <v> 1</v>
@@ -3074,164 +3071,164 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C218" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C219" t="n">
-        <v> 7</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C220" t="n">
-        <v> 9</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C221" t="n">
-        <v> 8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C222" t="n">
-        <v>11</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s">
         <v>86</v>
       </c>
       <c r="C223" t="n">
-        <v> 2</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C224" t="n">
-        <v> 4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C225" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C226" t="n">
-        <v>17</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C227" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C228" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C229" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C230" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C231" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B232" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C232" t="n">
         <v> 1</v>
@@ -3239,120 +3236,120 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C233" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C234" t="n">
-        <v>20</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C235" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C236" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C237" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C238" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C239" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C240" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C241" t="n">
-        <v> 8</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C242" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B243" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C243" t="n">
         <v> 1</v>
@@ -3360,32 +3357,32 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C244" t="n">
-        <v> 1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C245" t="n">
-        <v>31</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B246" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C246" t="n">
         <v> 1</v>
@@ -3393,43 +3390,43 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C247" t="n">
-        <v> 1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C248" t="n">
-        <v>20</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B249" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C249" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C250" t="n">
         <v> 1</v>
@@ -3437,87 +3434,87 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C251" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C252" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B253" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>106</v>
+      </c>
+      <c r="B254" t="s">
         <v>107</v>
       </c>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
       <c r="C254" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B255" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C256" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B257" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C257" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B258" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C258" t="n">
         <v> 1</v>
@@ -3525,10 +3522,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B259" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C259" t="n">
         <v> 1</v>
@@ -3536,43 +3533,43 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B260" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="n">
         <v>10</v>
-      </c>
-      <c r="C261" t="n">
-        <v> 2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C262" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C263" t="n">
         <v> 1</v>
@@ -3580,10 +3577,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C264" t="n">
         <v> 1</v>
@@ -3591,153 +3588,153 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B265" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C265" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C266" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C267" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C268" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B269" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C269" t="n">
-        <v> 3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B270" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C270" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B271" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C271" t="n">
-        <v> 1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C272" t="n">
-        <v>33</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C273" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B274" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C274" t="n">
-        <v> 1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B275" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C275" t="n">
-        <v>18</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C276" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C277" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B278" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C278" t="n">
         <v> 3</v>
@@ -3745,43 +3742,43 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B279" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C279" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C280" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B281" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C281" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B282" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C282" t="n">
         <v> 1</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B283" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C283" t="n">
         <v> 1</v>
@@ -3800,10 +3797,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B284" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C284" t="n">
         <v> 1</v>
@@ -3811,142 +3808,142 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B285" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C285" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B286" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C286" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B287" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C287" t="n">
-        <v> 2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B288" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C288" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B289" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C289" t="n">
-        <v>14</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B290" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C290" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C291" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B292" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C292" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C293" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B294" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C294" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B295" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C295" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B296" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C296" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B297" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C297" t="n">
         <v> 1</v>
@@ -3954,32 +3951,32 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C298" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B299" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C299" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C300" t="n">
         <v> 1</v>
@@ -3987,78 +3984,67 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B301" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C301" t="n">
-        <v> 1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B302" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C302" t="n">
-        <v>30</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B303" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C303" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B304" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C304" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C305" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B306" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C306" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>107</v>
-      </c>
-      <c r="B307" t="s">
-        <v>57</v>
-      </c>
-      <c r="C307" t="n">
         <v> 9</v>
       </c>
     </row>

--- a/data/05 application country numbers per year per country.xlsx
+++ b/data/05 application country numbers per year per country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>project_year</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>Armenia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
   </si>
   <si>
     <t>Benin</t>
@@ -2142,7 +2139,7 @@
         <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134">
@@ -2197,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139">
@@ -2384,7 +2381,7 @@
         <v>39</v>
       </c>
       <c r="C155" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -2516,7 +2513,7 @@
         <v>47</v>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
@@ -2582,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="C173" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
@@ -2637,7 +2634,7 @@
         <v>53</v>
       </c>
       <c r="C178" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179">
@@ -2736,7 +2733,7 @@
         <v>96</v>
       </c>
       <c r="C187" t="n">
-        <v> 4</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="188">
@@ -2747,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>11</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="189">
@@ -2755,10 +2752,10 @@
         <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v> 1</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="190">
@@ -2766,10 +2763,10 @@
         <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C190" t="n">
-        <v>10</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="191">
@@ -2777,10 +2774,10 @@
         <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="192">
@@ -2788,10 +2785,10 @@
         <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="193">
@@ -2799,10 +2796,10 @@
         <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>12</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="194">
@@ -2810,10 +2807,10 @@
         <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C194" t="n">
-        <v>10</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="195">
@@ -2821,10 +2818,10 @@
         <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C195" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="196">
@@ -2832,10 +2829,10 @@
         <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C196" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="197">
@@ -2843,7 +2840,7 @@
         <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C197" t="n">
         <v> 1</v>
@@ -2854,7 +2851,7 @@
         <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C198" t="n">
         <v> 1</v>
@@ -2865,10 +2862,10 @@
         <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C199" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="200">
@@ -2876,10 +2873,10 @@
         <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C200" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="201">
@@ -2887,10 +2884,10 @@
         <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C201" t="n">
-        <v> 3</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="202">
@@ -2898,10 +2895,10 @@
         <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C202" t="n">
-        <v> 2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -2909,10 +2906,10 @@
         <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="204">
@@ -2920,10 +2917,10 @@
         <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C204" t="n">
-        <v> 1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205">
@@ -2931,10 +2928,10 @@
         <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C205" t="n">
-        <v>43</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="206">
@@ -2942,10 +2939,10 @@
         <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C206" t="n">
-        <v> 8</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="207">
@@ -2953,10 +2950,10 @@
         <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C207" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="208">
@@ -2964,10 +2961,10 @@
         <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C208" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="209">
@@ -2975,10 +2972,10 @@
         <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C209" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="210">
@@ -2986,10 +2983,10 @@
         <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C210" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="211">
@@ -2997,10 +2994,10 @@
         <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C211" t="n">
-        <v> 1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
@@ -3008,10 +3005,10 @@
         <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C212" t="n">
-        <v>33</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="213">
@@ -3019,10 +3016,10 @@
         <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C213" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="214">
@@ -3030,10 +3027,10 @@
         <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C214" t="n">
-        <v> 1</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="215">
@@ -3041,10 +3038,10 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C215" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="216">
@@ -3052,7 +3049,7 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C216" t="n">
         <v> 1</v>
@@ -3063,10 +3060,10 @@
         <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C217" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="218">
@@ -3074,10 +3071,10 @@
         <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C218" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="219">
@@ -3085,10 +3082,10 @@
         <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C219" t="n">
-        <v> 9</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="220">
@@ -3096,10 +3093,10 @@
         <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C220" t="n">
-        <v> 8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -3107,10 +3104,10 @@
         <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C221" t="n">
-        <v>11</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="222">
@@ -3118,10 +3115,10 @@
         <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C222" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="223">
@@ -3129,10 +3126,10 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C223" t="n">
-        <v> 4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
@@ -3140,10 +3137,10 @@
         <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C224" t="n">
-        <v>36</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="225">
@@ -3151,10 +3148,10 @@
         <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C225" t="n">
-        <v>17</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="226">
@@ -3162,10 +3159,10 @@
         <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C226" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="227">
@@ -3173,10 +3170,10 @@
         <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C227" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="228">
@@ -3184,10 +3181,10 @@
         <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C228" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="229">
@@ -3195,10 +3192,10 @@
         <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C229" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="230">
@@ -3206,10 +3203,10 @@
         <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C230" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="231">
@@ -3217,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C231" t="n">
         <v> 1</v>
@@ -3228,10 +3225,10 @@
         <v>94</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C232" t="n">
-        <v> 1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233">
@@ -3239,10 +3236,10 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C233" t="n">
-        <v>20</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="234">
@@ -3250,10 +3247,10 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C234" t="n">
-        <v> 2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
@@ -3261,10 +3258,10 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C235" t="n">
-        <v>12</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="236">
@@ -3272,10 +3269,10 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C236" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="237">
@@ -3283,10 +3280,10 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C237" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="238">
@@ -3294,7 +3291,7 @@
         <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C238" t="n">
         <v> 1</v>
@@ -3305,10 +3302,10 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C239" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="240">
@@ -3316,10 +3313,10 @@
         <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C240" t="n">
-        <v> 8</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="241">
@@ -3327,10 +3324,10 @@
         <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C241" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="242">
@@ -3338,7 +3335,7 @@
         <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C242" t="n">
         <v> 1</v>
@@ -3349,10 +3346,10 @@
         <v>94</v>
       </c>
       <c r="B243" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C243" t="n">
-        <v> 1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244">
@@ -3360,10 +3357,10 @@
         <v>94</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C244" t="n">
-        <v>31</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="245">
@@ -3371,7 +3368,7 @@
         <v>94</v>
       </c>
       <c r="B245" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C245" t="n">
         <v> 1</v>
@@ -3382,10 +3379,10 @@
         <v>94</v>
       </c>
       <c r="B246" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C246" t="n">
-        <v> 1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -3393,10 +3390,10 @@
         <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C247" t="n">
-        <v>20</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="248">
@@ -3404,10 +3401,10 @@
         <v>94</v>
       </c>
       <c r="B248" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C248" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="249">
@@ -3415,7 +3412,7 @@
         <v>94</v>
       </c>
       <c r="B249" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C249" t="n">
         <v> 1</v>
@@ -3426,84 +3423,84 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C250" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v> 2</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
+        <v>105</v>
+      </c>
+      <c r="B253" t="s">
         <v>106</v>
       </c>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
       <c r="C253" t="n">
-        <v> 7</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B254" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C255" t="n">
-        <v> 7</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B256" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C256" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C257" t="n">
         <v> 1</v>
@@ -3511,10 +3508,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C258" t="n">
         <v> 1</v>
@@ -3522,43 +3519,43 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B259" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C259" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="n">
         <v>10</v>
-      </c>
-      <c r="C260" t="n">
-        <v> 2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C261" t="n">
-        <v>10</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C262" t="n">
         <v> 1</v>
@@ -3566,10 +3563,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C263" t="n">
         <v> 1</v>
@@ -3577,153 +3574,153 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C264" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C265" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C266" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C267" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B268" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C268" t="n">
-        <v> 3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B269" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C269" t="n">
-        <v>11</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C270" t="n">
-        <v> 1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B271" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C271" t="n">
-        <v>33</v>
+        <v> 9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C272" t="n">
-        <v> 9</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B273" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C273" t="n">
-        <v> 1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B274" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C274" t="n">
-        <v>18</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B275" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C275" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C276" t="n">
-        <v> 2</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B277" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C277" t="n">
         <v> 3</v>
@@ -3731,43 +3728,43 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C278" t="n">
-        <v> 3</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C279" t="n">
-        <v> 1</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C280" t="n">
-        <v> 2</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B281" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C281" t="n">
         <v> 1</v>
@@ -3775,10 +3772,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B282" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C282" t="n">
         <v> 1</v>
@@ -3786,10 +3783,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B283" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C283" t="n">
         <v> 1</v>
@@ -3797,142 +3794,142 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B284" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C284" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B285" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C285" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B286" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C286" t="n">
-        <v> 2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B287" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C287" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B288" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C288" t="n">
-        <v>14</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B289" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C289" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C290" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B291" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C291" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B292" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C292" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C293" t="n">
-        <v> 3</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C294" t="n">
-        <v> 7</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B295" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C295" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B296" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C296" t="n">
         <v> 1</v>
@@ -3940,32 +3937,32 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B297" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C297" t="n">
-        <v> 1</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C298" t="n">
-        <v> 8</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C299" t="n">
         <v> 1</v>
@@ -3973,78 +3970,67 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B300" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C300" t="n">
-        <v> 1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B301" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C301" t="n">
-        <v>30</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B302" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C302" t="n">
-        <v> 2</v>
+        <v> 8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B303" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C303" t="n">
-        <v> 7</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C304" t="n">
-        <v> 5</v>
+        <v> 2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B305" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C305" t="n">
-        <v> 2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>106</v>
-      </c>
-      <c r="B306" t="s">
-        <v>57</v>
-      </c>
-      <c r="C306" t="n">
         <v> 9</v>
       </c>
     </row>
